--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>This material contains content from LOINC (http://loinc.org). LOINC is copyright © 1995-2020, Regenstrief Institute, Inc. and the Logical Observation Identifiers Names and Codes (LOINC) Committee and is available at no cost under the license at http://loinc.org/license. LOINC® is a registered United States trademark of Regenstrief Institute, Inc</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -372,14 +375,16 @@
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -401,7 +406,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -409,26 +414,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +455,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -458,34 +463,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/epiType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/epiType</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T15:04:58+00:00</t>
+    <t>2022-12-14T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-epiType.xlsx
+++ b/branches/master/ValueSet-epiType.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
